--- a/Input/party data 2010-2019.xlsx
+++ b/Input/party data 2010-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\# Gregs Temp\Rice U DABC\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_\Data-Bootcamp-Project-1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0455038-7E40-4E36-8132-AED3FB6D54AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D882DFA-DBBF-4D74-834F-002EDB94C1AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8865" xr2:uid="{7072C63E-72C6-45FF-A531-FEF43640671D}"/>
   </bookViews>
@@ -608,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>2</v>
